--- a/MetroNetwork_v2.xlsx
+++ b/MetroNetwork_v2.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2AEBF7A-7D28-45B0-95C9-E58C83F63CEC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Fibers" sheetId="2" r:id="rId2"/>
-    <sheet name="UserServices" sheetId="3" r:id="rId3"/>
-    <sheet name="VnfTypes" sheetId="4" r:id="rId4"/>
+    <sheet name="VnfTypes" sheetId="4" r:id="rId3"/>
+    <sheet name="UserServices" sheetId="3" r:id="rId4"/>
     <sheet name="PerNodeAndServiceTimeIntensity" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>PositionLongitude</t>
   </si>
@@ -82,9 +83,6 @@
     <t>DestinationNodeName</t>
   </si>
   <si>
-    <t>UniqueId</t>
-  </si>
-  <si>
     <t>isBidirectional</t>
   </si>
   <si>
@@ -100,57 +98,18 @@
     <t>AmplifierPositionsFromOriginNode_km</t>
   </si>
   <si>
-    <t xml:space="preserve">SequenceVnfTypesToTraverse </t>
-  </si>
-  <si>
-    <t>AverageBaseBandwidthPerUser_Mbps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxLatencyFromServingMetroNodeToFirstVnf_ms </t>
-  </si>
-  <si>
     <t>Video</t>
   </si>
   <si>
-    <t>vnfTranscoder vnfFirewall Core</t>
-  </si>
-  <si>
-    <t>0.8 1.0 1.0</t>
-  </si>
-  <si>
     <t>IoT</t>
   </si>
   <si>
-    <t>vnfIot_1 vnfFirewall vnfIot_2 Core</t>
-  </si>
-  <si>
-    <t>0.1 1.0 1.0 1.0</t>
-  </si>
-  <si>
     <t>VnfType</t>
   </si>
   <si>
-    <t xml:space="preserve">NumberCpusConsumed </t>
-  </si>
-  <si>
-    <t>AmountRamConsumed_GB</t>
-  </si>
-  <si>
-    <t>AmountHdConsumed_GB</t>
-  </si>
-  <si>
-    <t>isConstrainedInItsPlacement</t>
-  </si>
-  <si>
-    <t>ValidMetroNodeNamesForInstantiation</t>
-  </si>
-  <si>
     <t>vnfTranscoder</t>
   </si>
   <si>
-    <t xml:space="preserve">MaximumInputTraffic_Gbps </t>
-  </si>
-  <si>
     <t>vnfFirewall</t>
   </si>
   <si>
@@ -160,12 +119,6 @@
     <t>vnfIot_2</t>
   </si>
   <si>
-    <t xml:space="preserve">SequenceOfUpstreamTrafficExpansionFactorsRespectToBaseUserPerVnf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequenceOfDownstreamTrafficExpansionFactorsRespectToBaseUserPerVnf </t>
-  </si>
-  <si>
     <t>ArbitraryParams</t>
   </si>
   <si>
@@ -181,19 +134,241 @@
     <t>ServiceUniqueId</t>
   </si>
   <si>
-    <t>MorningTrafficTotalGbps</t>
-  </si>
-  <si>
-    <t>AfternoonTrafficTotalGbps</t>
-  </si>
-  <si>
-    <t>NightTrafficTotalGbps</t>
+    <t>ValidOpticalSlotRanges</t>
+  </si>
+  <si>
+    <t>SequenceTrafficExpansionFactorRespectToInitial_Upstream</t>
+  </si>
+  <si>
+    <t>SequenceTrafficExpansionFactorRespectToInitial_Downstream</t>
+  </si>
+  <si>
+    <t>InjectionDownStreamExpansionFactorRespectToInitialUpstream</t>
+  </si>
+  <si>
+    <t>ISendingInCoreNode</t>
+  </si>
+  <si>
+    <t>VnfInstanceCapacity_Gbps</t>
+  </si>
+  <si>
+    <t>OccupCPU</t>
+  </si>
+  <si>
+    <t>OccupRAM_GB</t>
+  </si>
+  <si>
+    <t>OccupHD_GB</t>
+  </si>
+  <si>
+    <t>IsConstrainedItsPlacementToSomeNodes</t>
+  </si>
+  <si>
+    <t>ListUniqueNodeNamesOfNodesValidForInstantiation</t>
+  </si>
+  <si>
+    <t>ListVnfTypesCommaSeparated_Upstream</t>
+  </si>
+  <si>
+    <t>ListVnfTypesCommaSeparated_Downstream</t>
+  </si>
+  <si>
+    <t>ListMaxLatencyFromInitialToVnfStart_ms_Upstream</t>
+  </si>
+  <si>
+    <t>ListMaxLatencyFromInitialToVnfStart_ms_Downstream</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>aPnode1</t>
+  </si>
+  <si>
+    <t>aPnode2</t>
+  </si>
+  <si>
+    <t>aPnode3</t>
+  </si>
+  <si>
+    <t>aPnode4</t>
+  </si>
+  <si>
+    <t>41.1</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>41.2</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>1.0.320.0</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>2.0.200.250</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>2.0.200.250.300.0</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>2.0.200</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>380,381,382</t>
+  </si>
+  <si>
+    <t>22,23,24</t>
+  </si>
+  <si>
+    <t>520,521,522,523</t>
+  </si>
+  <si>
+    <t>23,24,25,26</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
+  </si>
+  <si>
+    <t>8,9,10,11</t>
+  </si>
+  <si>
+    <t>aPFiber1</t>
+  </si>
+  <si>
+    <t>aPFiber2</t>
+  </si>
+  <si>
+    <t>aPFiber3</t>
+  </si>
+  <si>
+    <t>aPFiber4</t>
+  </si>
+  <si>
+    <t>n1,n2</t>
+  </si>
+  <si>
+    <t>n2,n3,n4</t>
+  </si>
+  <si>
+    <t>aPVnfTypes1</t>
+  </si>
+  <si>
+    <t>aPVnfTypes2</t>
+  </si>
+  <si>
+    <t>aPVnfTypes3</t>
+  </si>
+  <si>
+    <t>aPVnfTypes4</t>
+  </si>
+  <si>
+    <t>vnfTranscoder,vnfFirewall</t>
+  </si>
+  <si>
+    <t>vnfIot_1,vnfIot_2</t>
+  </si>
+  <si>
+    <t>vnfFirewall,vnfTranscoder</t>
+  </si>
+  <si>
+    <t>vnfIot_2,vnfIot_1</t>
+  </si>
+  <si>
+    <t>aPUserServices1</t>
+  </si>
+  <si>
+    <t>aPUserServices2</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.0,2.0</t>
+  </si>
+  <si>
+    <t>2.0,1.0</t>
+  </si>
+  <si>
+    <t>1.1,2.1</t>
+  </si>
+  <si>
+    <t>2.1,1.1</t>
+  </si>
+  <si>
+    <t>100.0,200.0</t>
+  </si>
+  <si>
+    <t>200.0,100.0</t>
+  </si>
+  <si>
+    <t>111.0,222.0</t>
+  </si>
+  <si>
+    <t>222.0,111.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,9 +398,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,7 +433,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -533,29 +711,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -582,24 +760,24 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>51</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -613,22 +791,25 @@
       <c r="I2" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>41</v>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>51</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -642,22 +823,25 @@
       <c r="I3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>42</v>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>52</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -671,22 +855,25 @@
       <c r="I4" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>52</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -699,6 +886,9 @@
       </c>
       <c r="I5" s="1">
         <v>1000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -708,182 +898,369 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
       <c r="L1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2">
+        <v>124</v>
+      </c>
+      <c r="J2" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="2">
+        <v>250.251</v>
+      </c>
+      <c r="J3" s="2">
+        <v>21.22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.2</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
+      <c r="C5">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>210</v>
+      </c>
+      <c r="E3">
+        <v>211</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>301</v>
+      </c>
+      <c r="D4">
+        <v>310</v>
+      </c>
+      <c r="E4">
+        <v>311</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>0.08</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>401</v>
+      </c>
+      <c r="D5">
+        <v>410</v>
+      </c>
+      <c r="E5">
+        <v>411</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -892,119 +1269,116 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>32</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1013,166 +1387,89 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/MetroNetwork_v2.xlsx
+++ b/MetroNetwork_v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2AEBF7A-7D28-45B0-95C9-E58C83F63CEC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{634446A9-0884-405B-861E-31237C42B599}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>PositionLongitude</t>
   </si>
@@ -179,12 +179,6 @@
     <t>ListMaxLatencyFromInitialToVnfStart_ms_Downstream</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>40.1</t>
   </si>
   <si>
@@ -245,27 +239,15 @@
     <t>15.4</t>
   </si>
   <si>
-    <t>1.0.320.0</t>
-  </si>
-  <si>
     <t>0.51</t>
   </si>
   <si>
-    <t>2.0.200.250</t>
-  </si>
-  <si>
     <t>0.52</t>
   </si>
   <si>
-    <t>2.0.200.250.300.0</t>
-  </si>
-  <si>
     <t>0.53</t>
   </si>
   <si>
-    <t>2.0.200</t>
-  </si>
-  <si>
     <t>0.54</t>
   </si>
   <si>
@@ -363,6 +345,18 @@
   </si>
   <si>
     <t>222.0,111.0</t>
+  </si>
+  <si>
+    <t>1.0,320.0</t>
+  </si>
+  <si>
+    <t>2.0,200,250</t>
+  </si>
+  <si>
+    <t>2.0,200,250,300.0</t>
+  </si>
+  <si>
+    <t>2.0,200</t>
   </si>
 </sst>
 </file>
@@ -715,7 +709,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,16 +762,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -792,7 +786,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -800,16 +794,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -824,7 +818,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -832,16 +826,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>52</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -856,7 +850,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -864,16 +858,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>52</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -888,7 +882,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,20 +963,20 @@
       <c r="C2">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
-        <v>51</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2">
         <v>124</v>
@@ -994,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1007,20 +1001,20 @@
       <c r="C3">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2">
         <v>250.251</v>
@@ -1032,7 +1026,7 @@
         <v>6.7</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1045,32 +1039,32 @@
       <c r="C4">
         <v>134</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1083,32 +1077,32 @@
       <c r="C5">
         <v>141</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" t="s">
         <v>84</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1116,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,14 +1169,14 @@
       <c r="E2">
         <v>111</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1201,14 +1195,14 @@
       <c r="E3">
         <v>211</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1227,14 +1221,14 @@
       <c r="E4">
         <v>311</v>
       </c>
-      <c r="F4" t="s">
-        <v>52</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,14 +1247,14 @@
       <c r="E5">
         <v>411</v>
       </c>
-      <c r="F5" t="s">
-        <v>52</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1272,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,31 +1316,31 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,31 +1348,31 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/MetroNetwork_v2.xlsx
+++ b/MetroNetwork_v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{634446A9-0884-405B-861E-31237C42B599}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8BC7A694-AEE6-48B9-90F6-CE7AF12E7D51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <t>PositionLongitude</t>
   </si>
@@ -251,15 +251,9 @@
     <t>0.54</t>
   </si>
   <si>
-    <t>380,381,382</t>
-  </si>
-  <si>
     <t>22,23,24</t>
   </si>
   <si>
-    <t>520,521,522,523</t>
-  </si>
-  <si>
     <t>23,24,25,26</t>
   </si>
   <si>
@@ -350,13 +344,16 @@
     <t>1.0,320.0</t>
   </si>
   <si>
-    <t>2.0,200,250</t>
-  </si>
-  <si>
     <t>2.0,200,250,300.0</t>
   </si>
   <si>
     <t>2.0,200</t>
+  </si>
+  <si>
+    <t>103,104,105</t>
+  </si>
+  <si>
+    <t>106,107,108,109</t>
   </si>
 </sst>
 </file>
@@ -895,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>63</v>
@@ -979,7 +976,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2">
         <v>20</v>
@@ -988,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1005,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>64</v>
@@ -1017,7 +1014,7 @@
         <v>72</v>
       </c>
       <c r="I3" s="2">
-        <v>250.251</v>
+        <v>101.102</v>
       </c>
       <c r="J3" s="2">
         <v>21.22</v>
@@ -1026,7 +1023,7 @@
         <v>6.7</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1043,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -1055,16 +1052,16 @@
         <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -1093,16 +1090,16 @@
         <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1113,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
         <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1264,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1273,9 @@
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="7" max="10" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,31 +1315,31 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,31 +1347,31 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,25 +1443,9 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/MetroNetwork_v2.xlsx
+++ b/MetroNetwork_v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8BC7A694-AEE6-48B9-90F6-CE7AF12E7D51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7839A04E-60EC-4872-9AE2-4912D7EA1D14}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>InjectionDownStreamExpansionFactorRespectToInitialUpstream</t>
   </si>
   <si>
-    <t>ISendingInCoreNode</t>
-  </si>
-  <si>
     <t>VnfInstanceCapacity_Gbps</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>222.0,111.0</t>
   </si>
   <si>
-    <t>1.0,320.0</t>
-  </si>
-  <si>
     <t>2.0,200,250,300.0</t>
   </si>
   <si>
@@ -354,6 +348,12 @@
   </si>
   <si>
     <t>106,107,108,109</t>
+  </si>
+  <si>
+    <t>IsEndingInCoreNode</t>
+  </si>
+  <si>
+    <t>1.0,320.1</t>
   </si>
 </sst>
 </file>
@@ -369,12 +369,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,12 +395,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -759,10 +766,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -783,7 +790,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -791,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -815,7 +822,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -823,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -847,7 +854,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -855,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -879,7 +886,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -892,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,17 +970,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>105</v>
+      <c r="E2" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2">
         <v>100</v>
@@ -985,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1002,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2">
         <v>101.102</v>
@@ -1023,7 +1030,7 @@
         <v>6.7</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1040,28 +1047,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1078,28 +1085,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1113,13 +1120,14 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1129,22 +1137,22 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -1170,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1251,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1263,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,10 +1291,10 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -1295,16 +1303,16 @@
         <v>38</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
@@ -1315,31 +1323,31 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
       <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
         <v>101</v>
       </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
       <c r="H2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2">
+        <v>94</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1347,31 +1355,31 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
       <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
       <c r="H3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/MetroNetwork_v2.xlsx
+++ b/MetroNetwork_v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7839A04E-60EC-4872-9AE2-4912D7EA1D14}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD4C4319-FF74-41E6-AE1B-BE55DBDBFEE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
   <si>
     <t>PositionLongitude</t>
   </si>
@@ -353,7 +353,52 @@
     <t>IsEndingInCoreNode</t>
   </si>
   <si>
-    <t>1.0,320.1</t>
+    <t>1.0,320</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -712,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -899,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1421,7 @@
         <v>95</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>93</v>
@@ -1389,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,60 +1446,123 @@
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/MetroNetwork_v2.xlsx
+++ b/MetroNetwork_v2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD4C4319-FF74-41E6-AE1B-BE55DBDBFEE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{618D9950-68F9-4ECB-B289-31E462FAFD4C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
   <si>
     <t>PositionLongitude</t>
   </si>
@@ -143,9 +143,6 @@
     <t>SequenceTrafficExpansionFactorRespectToInitial_Downstream</t>
   </si>
   <si>
-    <t>InjectionDownStreamExpansionFactorRespectToInitialUpstream</t>
-  </si>
-  <si>
     <t>VnfInstanceCapacity_Gbps</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
     <t>0.54</t>
   </si>
   <si>
-    <t>22,23,24</t>
-  </si>
-  <si>
-    <t>23,24,25,26</t>
-  </si>
-  <si>
     <t>7,8,9</t>
   </si>
   <si>
@@ -344,12 +335,6 @@
     <t>2.0,200</t>
   </si>
   <si>
-    <t>103,104,105</t>
-  </si>
-  <si>
-    <t>106,107,108,109</t>
-  </si>
-  <si>
     <t>IsEndingInCoreNode</t>
   </si>
   <si>
@@ -389,9 +374,6 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>6.2</t>
-  </si>
-  <si>
     <t>test1</t>
   </si>
   <si>
@@ -399,6 +381,39 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>6.23</t>
+  </si>
+  <si>
+    <t>103.0,104.0,105.0</t>
+  </si>
+  <si>
+    <t>106.0,107.0,108.0,109.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>21.0,22.0</t>
+  </si>
+  <si>
+    <t>22.0,23.0,24.0</t>
+  </si>
+  <si>
+    <t>23.0,24.0,25.0,26.0</t>
+  </si>
+  <si>
+    <t>6.0,7.0</t>
+  </si>
+  <si>
+    <t>InjectionDownstreamExpansionFactorRespectToInitialUpstream</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>101.0,102</t>
   </si>
 </sst>
 </file>
@@ -758,23 +773,23 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -806,15 +821,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -835,18 +850,18 @@
         <v>1000</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -867,18 +882,18 @@
         <v>1000</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -899,18 +914,18 @@
         <v>1000</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -931,7 +946,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -944,27 +959,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1016,31 +1031,31 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="2">
-        <v>100</v>
-      </c>
-      <c r="J2" s="2">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="K2" s="2">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1054,31 +1069,31 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="2">
-        <v>101.102</v>
-      </c>
-      <c r="J3" s="2">
-        <v>21.22</v>
-      </c>
-      <c r="K3" s="2">
-        <v>6.7</v>
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1092,31 +1107,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1130,28 +1145,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1165,45 +1180,47 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
     <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1223,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1249,13 +1266,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1275,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1304,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1316,30 +1333,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
-    <col min="7" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.77734375" customWidth="1"/>
+    <col min="6" max="6" width="46.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="70" customWidth="1"/>
+    <col min="9" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -1348,83 +1367,83 @@
         <v>38</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1436,17 +1455,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1454,16 +1473,16 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1474,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1491,13 +1510,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1508,13 +1527,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1525,13 +1544,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1542,13 +1561,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1559,10 +1578,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/MetroNetwork_v2.xlsx
+++ b/MetroNetwork_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{618D9950-68F9-4ECB-B289-31E462FAFD4C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99687E88-1A89-4930-ABAC-C327F645AA9C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>101.0,102</t>
+    <t>101.0,102.0</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,7 +1315,7 @@
         <v>411</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
